--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\AVLo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A75BC0-CB70-4CB5-9D67-E3CEE4D29F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B446D3AE-B87D-4E62-AC29-BC99054FBCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1266,7 +1266,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1284,14 +1284,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1299,7 +1296,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="154">
     <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1875,7 +1871,7 @@
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1983,40 +1979,40 @@
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2313,19 +2309,19 @@
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3" s="11" customFormat="1">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>2009</v>
       </c>
     </row>
@@ -2355,10 +2351,10 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>2009</v>
       </c>
     </row>
@@ -2458,7 +2454,7 @@
       <c r="A40" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="6">
         <v>2967</v>
       </c>
     </row>
@@ -2466,7 +2462,7 @@
       <c r="A41" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="6">
         <v>100</v>
       </c>
     </row>
@@ -2474,7 +2470,7 @@
       <c r="A42" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="6">
         <v>27876</v>
       </c>
       <c r="C42" t="s">
@@ -2485,7 +2481,7 @@
       <c r="A43" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="6">
         <v>4151</v>
       </c>
       <c r="C43" t="s">
@@ -2493,7 +2489,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="B44" s="15"/>
+      <c r="B44" s="6"/>
       <c r="C44" t="s">
         <v>104</v>
       </c>
@@ -2502,7 +2498,7 @@
       <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="6">
         <v>6614973</v>
       </c>
     </row>
@@ -2510,7 +2506,7 @@
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="6">
         <v>5727512</v>
       </c>
     </row>
@@ -2518,7 +2514,7 @@
       <c r="A47" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="6">
         <v>44777151</v>
       </c>
     </row>
@@ -2526,18 +2522,18 @@
       <c r="A48" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="6">
         <v>12172542</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="B49" s="15"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="6">
         <f>B45/B40</f>
         <v>2229.5156723963601</v>
       </c>
@@ -2546,7 +2542,7 @@
       <c r="A51" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="6">
         <f>B46/B41</f>
         <v>57275.12</v>
       </c>
@@ -2555,7 +2551,7 @@
       <c r="A52" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="6">
         <f t="shared" ref="B52:B53" si="1">B47/B42</f>
         <v>1606.2975678002583</v>
       </c>
@@ -2564,19 +2560,19 @@
       <c r="A53" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="6">
         <f t="shared" si="1"/>
         <v>2932.4360395085523</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="B54" s="15"/>
+      <c r="B54" s="6"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="6">
         <f>SUMPRODUCT(B40:B43,B50:B53)/SUM(B40:B43)</f>
         <v>1974.4736422180429</v>
       </c>
@@ -2588,7 +2584,7 @@
       <c r="A57" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <v>2007</v>
       </c>
     </row>
@@ -2601,10 +2597,10 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="11" t="s">
+      <c r="A59" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59">
         <v>17287</v>
       </c>
     </row>
@@ -2632,7 +2628,7 @@
       <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63">
         <v>1670994</v>
       </c>
     </row>
@@ -2652,7 +2648,7 @@
         <f>B64/B63</f>
         <v>1.579999688807979</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2678,7 +2674,9 @@
   </sheetPr>
   <dimension ref="A1:AK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:AK3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -2687,7 +2685,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="43.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="5">
@@ -3395,7 +3393,7 @@
       </c>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="7">
@@ -3711,7 +3709,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1" ht="43.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B1" s="1">
@@ -3824,7 +3822,7 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
       <c r="C2">
